--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_13_12.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_13_12.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-689379.8507421908</v>
+        <v>-691997.8531088177</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673431</v>
+        <v>603248.4937673433</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>13558741.65891523</v>
+        <v>13558741.65891524</v>
       </c>
     </row>
     <row r="11">
@@ -659,25 +659,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>216.1451012539898</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>152.3265116688851</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>411.547702772954</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -710,22 +710,22 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>145.459002546649</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -756,7 +756,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I3" t="n">
-        <v>20.22295923705015</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -814,10 +814,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>145.9219060821655</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -871,13 +871,13 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>85.36610313819104</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -893,10 +893,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -905,16 +905,16 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>11.54770277295399</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H5" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -950,16 +950,16 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>244.8519416448873</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>130.6264509097697</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -993,7 +993,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I6" t="n">
-        <v>20.22295923705015</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1054,7 +1054,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -1063,7 +1063,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>39.67359515955042</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1072,7 +1072,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1105,22 +1105,22 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>61.24663596800647</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1139,19 +1139,19 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>23.81802663387328</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,10 +1181,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>149.6741394702211</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1193,7 +1193,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -1227,10 +1227,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H9" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S9" t="n">
         <v>128.1435076414547</v>
@@ -1288,19 +1288,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>102.8228810500189</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>25.43854599781697</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1309,7 +1309,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1345,10 +1345,10 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -1418,10 +1418,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U11" t="n">
         <v>250.9057009881286</v>
@@ -1436,7 +1436,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.237938656054</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -1531,10 +1531,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -1543,10 +1543,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,25 +1573,25 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>79.9081607862897</v>
       </c>
       <c r="T13" t="n">
-        <v>73.78417491007373</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1619,10 +1619,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187877</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444123</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1768,22 +1768,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>55.52079624060384</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,16 +1810,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>1.255571502167816</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1844,7 +1844,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
@@ -1856,7 +1856,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.803338518787</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
         <v>283.1540821444137</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2002,16 +2002,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>110.0177171766861</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2056,10 +2056,10 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>106.997776813539</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2242,22 +2242,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2302,10 +2302,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>71.99884436925737</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2479,7 +2479,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>113.6427030833208</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2491,10 +2491,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2533,7 +2533,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2564,7 +2564,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417118</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
         <v>409.8033385187866</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2722,10 +2722,10 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>29.24923305751711</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2804,7 +2804,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>409.8033385187866</v>
+        <v>409.803338518787</v>
       </c>
       <c r="H29" t="n">
         <v>283.1540821444137</v>
@@ -2846,7 +2846,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U29" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -2953,7 +2953,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -2965,10 +2965,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>139.7072979240953</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>9.146142788179931</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3010,7 +3010,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -3187,7 +3187,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>110.0177171766861</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012166</v>
+        <v>9.146142788179931</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3424,25 +3424,25 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C37" t="n">
-        <v>142.9621736065882</v>
+        <v>142.9621736065881</v>
       </c>
       <c r="D37" t="n">
-        <v>124.3308255261727</v>
+        <v>124.3308255261726</v>
       </c>
       <c r="E37" t="n">
-        <v>122.1493151545296</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F37" t="n">
         <v>121.1364005308915</v>
       </c>
       <c r="G37" t="n">
-        <v>141.2394908002292</v>
+        <v>141.2394908002291</v>
       </c>
       <c r="H37" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I37" t="n">
-        <v>56.98118882652584</v>
+        <v>56.98118882652696</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,13 +3469,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>42.09059921808198</v>
+        <v>42.09059921808192</v>
       </c>
       <c r="S37" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T37" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U37" t="n">
         <v>261.8998268972044</v>
@@ -3484,10 +3484,10 @@
         <v>227.8529958317883</v>
       </c>
       <c r="W37" t="n">
-        <v>262.2383508445513</v>
+        <v>262.2383508445512</v>
       </c>
       <c r="X37" t="n">
-        <v>201.4250078969975</v>
+        <v>201.4250078969974</v>
       </c>
       <c r="Y37" t="n">
         <v>194.3000058600551</v>
@@ -3512,7 +3512,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417118</v>
       </c>
       <c r="G38" t="n">
         <v>409.8033385187866</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3661,25 +3661,25 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C40" t="n">
-        <v>142.9621736065882</v>
+        <v>142.9621736065881</v>
       </c>
       <c r="D40" t="n">
-        <v>124.3308255261728</v>
+        <v>124.3308255261726</v>
       </c>
       <c r="E40" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F40" t="n">
         <v>121.1364005308915</v>
       </c>
       <c r="G40" t="n">
-        <v>141.2394908002292</v>
+        <v>141.2394908002291</v>
       </c>
       <c r="H40" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I40" t="n">
-        <v>56.98118882652584</v>
+        <v>56.98118882652577</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,25 +3706,25 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>42.09059921808198</v>
+        <v>42.09059921808191</v>
       </c>
       <c r="S40" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T40" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U40" t="n">
-        <v>261.8998268972044</v>
+        <v>261.8998268972062</v>
       </c>
       <c r="V40" t="n">
         <v>227.8529958317883</v>
       </c>
       <c r="W40" t="n">
-        <v>262.2383508445513</v>
+        <v>262.2383508445512</v>
       </c>
       <c r="X40" t="n">
-        <v>201.4250078969975</v>
+        <v>201.4250078969974</v>
       </c>
       <c r="Y40" t="n">
         <v>194.3000058600551</v>
@@ -3740,7 +3740,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D41" t="n">
         <v>354.683041620683</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3898,25 +3898,25 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C43" t="n">
-        <v>142.9621736065882</v>
+        <v>142.9621736065881</v>
       </c>
       <c r="D43" t="n">
-        <v>124.3308255261727</v>
+        <v>124.3308255261726</v>
       </c>
       <c r="E43" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F43" t="n">
         <v>121.1364005308915</v>
       </c>
       <c r="G43" t="n">
-        <v>141.2394908002292</v>
+        <v>141.2394908002291</v>
       </c>
       <c r="H43" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I43" t="n">
-        <v>56.98118882652582</v>
+        <v>56.98118882652579</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,13 +3943,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.09059921808196</v>
+        <v>42.09059921808195</v>
       </c>
       <c r="S43" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T43" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U43" t="n">
         <v>261.8998268972044</v>
@@ -3958,10 +3958,10 @@
         <v>227.8529958317883</v>
       </c>
       <c r="W43" t="n">
-        <v>262.2383508445513</v>
+        <v>262.2383508445512</v>
       </c>
       <c r="X43" t="n">
-        <v>201.4250078969975</v>
+        <v>201.4250078969974</v>
       </c>
       <c r="Y43" t="n">
         <v>194.3000058600551</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4153,7 +4153,7 @@
         <v>116.0100653541841</v>
       </c>
       <c r="I46" t="n">
-        <v>56.98118882652578</v>
+        <v>56.98118882652579</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>42.09059921808192</v>
+        <v>42.09059921808195</v>
       </c>
       <c r="S46" t="n">
         <v>156.7416385096049</v>
@@ -4304,34 +4304,34 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1302.576789404184</v>
+        <v>1203.388756704967</v>
       </c>
       <c r="C2" t="n">
-        <v>1302.576789404184</v>
+        <v>834.426239764555</v>
       </c>
       <c r="D2" t="n">
-        <v>944.3110907974335</v>
+        <v>616.0978546595148</v>
       </c>
       <c r="E2" t="n">
-        <v>944.3110907974335</v>
+        <v>462.2326913576107</v>
       </c>
       <c r="F2" t="n">
-        <v>533.3251860078259</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="G2" t="n">
-        <v>117.6204357321147</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H2" t="n">
-        <v>117.6204357321147</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I2" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J2" t="n">
-        <v>187.5281822362818</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K2" t="n">
-        <v>442.5171852816081</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L2" t="n">
         <v>795.755353087291</v>
@@ -4340,13 +4340,13 @@
         <v>1220.470313923561</v>
       </c>
       <c r="N2" t="n">
-        <v>1656.671415230816</v>
+        <v>1656.671415230817</v>
       </c>
       <c r="O2" t="n">
-        <v>2055.228484740839</v>
+        <v>2055.22848474084</v>
       </c>
       <c r="P2" t="n">
-        <v>2360.886721764998</v>
+        <v>2360.886721764997</v>
       </c>
       <c r="Q2" t="n">
         <v>2542.25058172385</v>
@@ -4358,22 +4358,22 @@
         <v>2562.339328400155</v>
       </c>
       <c r="T2" t="n">
-        <v>2562.339328400155</v>
+        <v>2353.59368700598</v>
       </c>
       <c r="U2" t="n">
-        <v>2562.339328400155</v>
+        <v>2353.59368700598</v>
       </c>
       <c r="V2" t="n">
-        <v>2415.4110429995</v>
+        <v>2353.59368700598</v>
       </c>
       <c r="W2" t="n">
-        <v>2062.642387729386</v>
+        <v>2353.59368700598</v>
       </c>
       <c r="X2" t="n">
-        <v>1689.176629468306</v>
+        <v>1980.1279287449</v>
       </c>
       <c r="Y2" t="n">
-        <v>1689.176629468306</v>
+        <v>1589.988596769088</v>
       </c>
     </row>
     <row r="3">
@@ -4383,52 +4383,52 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>931.3041410966389</v>
+        <v>931.3041410966384</v>
       </c>
       <c r="C3" t="n">
-        <v>756.8511118155119</v>
+        <v>756.8511118155114</v>
       </c>
       <c r="D3" t="n">
-        <v>607.9167021542605</v>
+        <v>607.9167021542603</v>
       </c>
       <c r="E3" t="n">
-        <v>448.679247148805</v>
+        <v>448.6792471488047</v>
       </c>
       <c r="F3" t="n">
-        <v>302.1446891756899</v>
+        <v>302.1446891756898</v>
       </c>
       <c r="G3" t="n">
-        <v>165.4432786182521</v>
+        <v>165.443278618252</v>
       </c>
       <c r="H3" t="n">
-        <v>71.67401812057906</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I3" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J3" t="n">
-        <v>238.4273302370161</v>
+        <v>168.00081891452</v>
       </c>
       <c r="K3" t="n">
-        <v>423.148951518066</v>
+        <v>614.5430248380228</v>
       </c>
       <c r="L3" t="n">
-        <v>884.9085321458217</v>
+        <v>909.2465818694945</v>
       </c>
       <c r="M3" t="n">
-        <v>1248.170551105042</v>
+        <v>1272.508600828715</v>
       </c>
       <c r="N3" t="n">
-        <v>1635.455679701987</v>
+        <v>1659.79372942566</v>
       </c>
       <c r="O3" t="n">
-        <v>1967.526114878149</v>
+        <v>1991.864164601822</v>
       </c>
       <c r="P3" t="n">
-        <v>2214.708848710446</v>
+        <v>2239.046898434119</v>
       </c>
       <c r="Q3" t="n">
-        <v>2538.001278676482</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R3" t="n">
         <v>2562.339328400155</v>
@@ -4446,10 +4446,10 @@
         <v>1769.368633815395</v>
       </c>
       <c r="W3" t="n">
-        <v>1515.131277087194</v>
+        <v>1515.131277087193</v>
       </c>
       <c r="X3" t="n">
-        <v>1307.279776881661</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y3" t="n">
         <v>1099.519478116707</v>
@@ -4462,7 +4462,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>665.1026499885492</v>
+        <v>496.1664670606423</v>
       </c>
       <c r="C4" t="n">
         <v>496.1664670606423</v>
@@ -4486,25 +4486,25 @@
         <v>51.24678656800311</v>
       </c>
       <c r="J4" t="n">
-        <v>76.71595955312198</v>
+        <v>76.715959553122</v>
       </c>
       <c r="K4" t="n">
-        <v>248.4064713020475</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L4" t="n">
-        <v>523.6376499693233</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M4" t="n">
-        <v>824.2194607096585</v>
+        <v>824.2194607096588</v>
       </c>
       <c r="N4" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O4" t="n">
-        <v>1383.126566999034</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P4" t="n">
-        <v>1582.113182171023</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q4" t="n">
         <v>1636.446120074497</v>
@@ -4519,19 +4519,19 @@
         <v>1636.446120074497</v>
       </c>
       <c r="U4" t="n">
-        <v>1550.217733066223</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="V4" t="n">
-        <v>1295.533244860336</v>
+        <v>1381.76163186861</v>
       </c>
       <c r="W4" t="n">
-        <v>1295.533244860336</v>
+        <v>1092.34446183165</v>
       </c>
       <c r="X4" t="n">
-        <v>1067.543693962319</v>
+        <v>864.3549109336325</v>
       </c>
       <c r="Y4" t="n">
-        <v>846.7511148187889</v>
+        <v>643.5623317901023</v>
       </c>
     </row>
     <row r="5">
@@ -4541,55 +4541,55 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>742.878294495355</v>
+        <v>944.3110907974335</v>
       </c>
       <c r="C5" t="n">
-        <v>373.9157775549434</v>
+        <v>944.3110907974335</v>
       </c>
       <c r="D5" t="n">
-        <v>373.9157775549434</v>
+        <v>944.3110907974335</v>
       </c>
       <c r="E5" t="n">
-        <v>373.9157775549434</v>
+        <v>944.3110907974335</v>
       </c>
       <c r="F5" t="n">
-        <v>366.9702768057399</v>
+        <v>533.3251860078259</v>
       </c>
       <c r="G5" t="n">
-        <v>355.3059305704328</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="H5" t="n">
-        <v>51.24678656800311</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I5" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J5" t="n">
-        <v>187.5281822362817</v>
+        <v>187.5281822362818</v>
       </c>
       <c r="K5" t="n">
-        <v>442.5171852816086</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L5" t="n">
-        <v>795.7553530872917</v>
+        <v>795.7553530872924</v>
       </c>
       <c r="M5" t="n">
-        <v>1220.470313923562</v>
+        <v>1220.470313923563</v>
       </c>
       <c r="N5" t="n">
-        <v>1656.671415230817</v>
+        <v>1656.671415230818</v>
       </c>
       <c r="O5" t="n">
-        <v>2055.22848474084</v>
+        <v>2055.228484740841</v>
       </c>
       <c r="P5" t="n">
-        <v>2360.886721764997</v>
+        <v>2360.886721764998</v>
       </c>
       <c r="Q5" t="n">
-        <v>2542.25058172385</v>
+        <v>2542.250581723851</v>
       </c>
       <c r="R5" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="S5" t="n">
         <v>2437.640120926626</v>
@@ -4598,19 +4598,19 @@
         <v>2437.640120926626</v>
       </c>
       <c r="U5" t="n">
-        <v>2190.314927345931</v>
+        <v>2184.059060190806</v>
       </c>
       <c r="V5" t="n">
-        <v>1859.252040002361</v>
+        <v>1852.996172847235</v>
       </c>
       <c r="W5" t="n">
-        <v>1506.483384732247</v>
+        <v>1721.050262837367</v>
       </c>
       <c r="X5" t="n">
-        <v>1133.017626471167</v>
+        <v>1721.050262837367</v>
       </c>
       <c r="Y5" t="n">
-        <v>742.878294495355</v>
+        <v>1330.910930861555</v>
       </c>
     </row>
     <row r="6">
@@ -4620,49 +4620,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>931.3041410966389</v>
+        <v>931.3041410966385</v>
       </c>
       <c r="C6" t="n">
-        <v>756.8511118155119</v>
+        <v>756.8511118155116</v>
       </c>
       <c r="D6" t="n">
-        <v>607.9167021542605</v>
+        <v>607.9167021542603</v>
       </c>
       <c r="E6" t="n">
-        <v>448.679247148805</v>
+        <v>448.6792471488048</v>
       </c>
       <c r="F6" t="n">
-        <v>302.1446891756899</v>
+        <v>302.1446891756898</v>
       </c>
       <c r="G6" t="n">
-        <v>165.4432786182521</v>
+        <v>165.443278618252</v>
       </c>
       <c r="H6" t="n">
-        <v>71.67401812057906</v>
+        <v>71.67401812057899</v>
       </c>
       <c r="I6" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J6" t="n">
-        <v>238.4273302370161</v>
+        <v>113.5972052500114</v>
       </c>
       <c r="K6" t="n">
-        <v>423.148951518066</v>
+        <v>560.1394111735142</v>
       </c>
       <c r="L6" t="n">
-        <v>821.9680821844939</v>
+        <v>854.8429682049859</v>
       </c>
       <c r="M6" t="n">
-        <v>1456.147065963532</v>
+        <v>1218.104987164206</v>
       </c>
       <c r="N6" t="n">
-        <v>1843.432194560478</v>
+        <v>1605.390115761151</v>
       </c>
       <c r="O6" t="n">
-        <v>2175.502629736639</v>
+        <v>1937.460550937313</v>
       </c>
       <c r="P6" t="n">
-        <v>2422.685363568936</v>
+        <v>2214.708848710445</v>
       </c>
       <c r="Q6" t="n">
         <v>2538.001278676482</v>
@@ -4677,16 +4677,16 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U6" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V6" t="n">
         <v>1769.368633815395</v>
       </c>
       <c r="W6" t="n">
-        <v>1515.131277087194</v>
+        <v>1515.131277087193</v>
       </c>
       <c r="X6" t="n">
-        <v>1307.279776881661</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y6" t="n">
         <v>1099.519478116707</v>
@@ -4699,49 +4699,49 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>620.8411572468201</v>
+        <v>239.2342186953967</v>
       </c>
       <c r="C7" t="n">
-        <v>451.9049743189132</v>
+        <v>239.2342186953967</v>
       </c>
       <c r="D7" t="n">
-        <v>451.9049743189132</v>
+        <v>239.2342186953967</v>
       </c>
       <c r="E7" t="n">
-        <v>303.9918807365201</v>
+        <v>91.32112511300355</v>
       </c>
       <c r="F7" t="n">
-        <v>157.1019332386098</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="G7" t="n">
-        <v>157.1019332386098</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="H7" t="n">
-        <v>157.1019332386098</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="I7" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J7" t="n">
-        <v>76.71595955312198</v>
+        <v>76.715959553122</v>
       </c>
       <c r="K7" t="n">
-        <v>248.4064713020475</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L7" t="n">
-        <v>523.6376499693233</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M7" t="n">
-        <v>824.2194607096585</v>
+        <v>824.2194607096588</v>
       </c>
       <c r="N7" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O7" t="n">
-        <v>1383.126566999034</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P7" t="n">
-        <v>1582.113182171023</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q7" t="n">
         <v>1636.446120074497</v>
@@ -4753,22 +4753,22 @@
         <v>1636.446120074497</v>
       </c>
       <c r="T7" t="n">
-        <v>1636.446120074497</v>
+        <v>1413.467639269233</v>
       </c>
       <c r="U7" t="n">
-        <v>1636.446120074497</v>
+        <v>1124.349301773071</v>
       </c>
       <c r="V7" t="n">
-        <v>1381.76163186861</v>
+        <v>869.6648135671838</v>
       </c>
       <c r="W7" t="n">
-        <v>1092.344461831649</v>
+        <v>869.6648135671838</v>
       </c>
       <c r="X7" t="n">
-        <v>864.354910933632</v>
+        <v>641.6752626691665</v>
       </c>
       <c r="Y7" t="n">
-        <v>802.4896220770598</v>
+        <v>420.8826835256364</v>
       </c>
     </row>
     <row r="8">
@@ -4778,34 +4778,34 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1285.591601078694</v>
+        <v>1582.86133602681</v>
       </c>
       <c r="C8" t="n">
-        <v>916.6290841382827</v>
+        <v>1213.898819086399</v>
       </c>
       <c r="D8" t="n">
-        <v>916.6290841382827</v>
+        <v>1213.898819086399</v>
       </c>
       <c r="E8" t="n">
-        <v>916.6290841382827</v>
+        <v>828.1105664881544</v>
       </c>
       <c r="F8" t="n">
-        <v>505.6431793486751</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G8" t="n">
-        <v>90.57072919367158</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H8" t="n">
-        <v>90.57072919367158</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810554</v>
+        <v>589.210621081055</v>
       </c>
       <c r="L8" t="n">
         <v>1040.244834329464</v>
@@ -4814,40 +4814,40 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296684</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609169</v>
       </c>
       <c r="S8" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136264</v>
       </c>
       <c r="T8" t="n">
-        <v>3119.628073993393</v>
+        <v>3064.129153671394</v>
       </c>
       <c r="U8" t="n">
-        <v>3119.628073993393</v>
+        <v>3064.129153671394</v>
       </c>
       <c r="V8" t="n">
-        <v>2788.565186649822</v>
+        <v>2733.066266327824</v>
       </c>
       <c r="W8" t="n">
-        <v>2435.796531379708</v>
+        <v>2733.066266327824</v>
       </c>
       <c r="X8" t="n">
-        <v>2062.330773118628</v>
+        <v>2359.600508066744</v>
       </c>
       <c r="Y8" t="n">
-        <v>1672.191441142816</v>
+        <v>1969.461176090932</v>
       </c>
     </row>
     <row r="9">
@@ -4872,22 +4872,22 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927781</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064576</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I9" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228006</v>
+        <v>160.1893859228005</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031475</v>
+        <v>398.4535849031476</v>
       </c>
       <c r="L9" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158129</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
@@ -4936,40 +4936,40 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>339.3097953702104</v>
+        <v>486.5398815319801</v>
       </c>
       <c r="C10" t="n">
-        <v>170.3736124423035</v>
+        <v>486.5398815319801</v>
       </c>
       <c r="D10" t="n">
-        <v>66.51211643218342</v>
+        <v>336.4232421196443</v>
       </c>
       <c r="E10" t="n">
-        <v>66.51211643218342</v>
+        <v>310.7277411117484</v>
       </c>
       <c r="F10" t="n">
-        <v>66.51211643218342</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="G10" t="n">
-        <v>66.51211643218342</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218342</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J10" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K10" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L10" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M10" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N10" t="n">
         <v>1317.747152581905</v>
@@ -4981,10 +4981,10 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q10" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R10" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="S10" t="n">
         <v>1735.608663915319</v>
@@ -4993,19 +4993,19 @@
         <v>1513.842048484845</v>
       </c>
       <c r="U10" t="n">
-        <v>1513.842048484845</v>
+        <v>1224.739181610488</v>
       </c>
       <c r="V10" t="n">
-        <v>1259.157560278958</v>
+        <v>1224.739181610488</v>
       </c>
       <c r="W10" t="n">
-        <v>969.7403902419976</v>
+        <v>935.3220115735276</v>
       </c>
       <c r="X10" t="n">
-        <v>741.7508393439803</v>
+        <v>707.3324606755102</v>
       </c>
       <c r="Y10" t="n">
-        <v>520.9582602004501</v>
+        <v>486.5398815319801</v>
       </c>
     </row>
     <row r="11">
@@ -5033,46 +5033,46 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192602</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K11" t="n">
-        <v>852.852361107581</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
         <v>3820.749612123003</v>
@@ -5103,7 +5103,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5112,28 +5112,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K12" t="n">
         <v>427.7414352191925</v>
       </c>
       <c r="L12" t="n">
-        <v>776.1751066403293</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M12" t="n">
-        <v>1373.553594266881</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N12" t="n">
-        <v>2001.151557821488</v>
+        <v>2148.04349261611</v>
       </c>
       <c r="O12" t="n">
-        <v>2553.061288060775</v>
+        <v>2148.04349261611</v>
       </c>
       <c r="P12" t="n">
         <v>2553.061288060775</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>658.9255961109956</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C13" t="n">
-        <v>489.9894131830887</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D13" t="n">
-        <v>489.9894131830887</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E13" t="n">
-        <v>489.9894131830887</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F13" t="n">
-        <v>343.0994656851783</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G13" t="n">
-        <v>175.9033664000583</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H13" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487568</v>
+        <v>2299.202065907118</v>
       </c>
       <c r="T13" t="n">
-        <v>2122.533075881433</v>
+        <v>2079.600600930059</v>
       </c>
       <c r="U13" t="n">
-        <v>1833.45784922563</v>
+        <v>1790.525374274257</v>
       </c>
       <c r="V13" t="n">
-        <v>1578.773361019743</v>
+        <v>1790.525374274257</v>
       </c>
       <c r="W13" t="n">
-        <v>1289.356190982783</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="X13" t="n">
-        <v>1061.366640084765</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y13" t="n">
-        <v>840.5740609412353</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="14">
@@ -5252,34 +5252,34 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F14" t="n">
-        <v>793.773653616862</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362672</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192605</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K14" t="n">
-        <v>852.852361107581</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5288,40 +5288,40 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="15">
@@ -5340,7 +5340,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5349,34 +5349,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="K15" t="n">
-        <v>427.7414352191925</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="L15" t="n">
-        <v>923.0670414349513</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="M15" t="n">
-        <v>1520.445529061503</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N15" t="n">
-        <v>1520.445529061503</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190824</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>801.6605733532801</v>
+        <v>763.7541388327643</v>
       </c>
       <c r="C16" t="n">
-        <v>632.7243904253733</v>
+        <v>594.8179559048574</v>
       </c>
       <c r="D16" t="n">
-        <v>632.7243904253733</v>
+        <v>444.7013164925216</v>
       </c>
       <c r="E16" t="n">
-        <v>484.8112968429802</v>
+        <v>296.7882229101285</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429802</v>
+        <v>149.8982754122182</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487568</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510509</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U16" t="n">
-        <v>1976.192826467915</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V16" t="n">
-        <v>1721.508338262028</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W16" t="n">
-        <v>1432.091168225067</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="X16" t="n">
-        <v>1204.10161732705</v>
+        <v>1166.195182806534</v>
       </c>
       <c r="Y16" t="n">
-        <v>983.3090381835199</v>
+        <v>945.402603663004</v>
       </c>
     </row>
     <row r="17">
@@ -5492,7 +5492,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
         <v>1590.547811004713</v>
@@ -5501,22 +5501,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5534,28 +5534,28 @@
         <v>4194.413870694708</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5577,7 +5577,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5586,25 +5586,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>245.2306927803938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K18" t="n">
-        <v>579.1554649516144</v>
+        <v>280.8495004245706</v>
       </c>
       <c r="L18" t="n">
-        <v>1074.481071167373</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M18" t="n">
-        <v>1671.859558793925</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N18" t="n">
-        <v>2299.457522348532</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O18" t="n">
         <v>2553.061288060775</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400717</v>
+        <v>1016.58045691144</v>
       </c>
       <c r="C19" t="n">
-        <v>402.7245934908938</v>
+        <v>847.6442739835331</v>
       </c>
       <c r="D19" t="n">
-        <v>402.7245934908938</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="E19" t="n">
-        <v>402.7245934908938</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F19" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G19" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487568</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510509</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854707</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.70136564882</v>
+        <v>1936.428221820188</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611859</v>
+        <v>1647.011051783227</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138415</v>
+        <v>1419.02150088521</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703114</v>
+        <v>1198.22892174168</v>
       </c>
     </row>
     <row r="20">
@@ -5741,19 +5741,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5762,10 +5762,10 @@
         <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5786,13 +5786,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5826,13 +5826,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
         <v>1074.481071167373</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>956.9553291057244</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>788.0191461778176</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D22" t="n">
-        <v>637.9025067654818</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E22" t="n">
-        <v>489.9894131830887</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F22" t="n">
-        <v>343.0994656851783</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G22" t="n">
-        <v>175.9033664000582</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>1138.603793935964</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>1138.603793935964</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5966,61 +5966,61 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.773653616862</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362693</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V23" t="n">
         <v>3820.749612123003</v>
@@ -6066,25 +6066,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L24" t="n">
-        <v>119.2902967703784</v>
+        <v>352.5519571452614</v>
       </c>
       <c r="M24" t="n">
-        <v>716.6687843969303</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="N24" t="n">
-        <v>1344.266747951537</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O24" t="n">
-        <v>1896.176478190824</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P24" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
         <v>2553.061288060775</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>768.5380889459586</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>599.6019060180517</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D25" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E25" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F25" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578601</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1688.385853854707</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1398.968683817746</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>1170.979132919728</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>950.1865537761984</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6203,7 +6203,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
         <v>1590.547811004713</v>
@@ -6215,13 +6215,13 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192605</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
         <v>378.1925803111717</v>
@@ -6236,37 +6236,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6288,7 +6288,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6297,22 +6297,22 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797189</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>280.8495004245705</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>776.1751066403293</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
         <v>2001.151557821488</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>551.354624631591</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>382.4184417036842</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D28" t="n">
-        <v>382.4184417036842</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E28" t="n">
-        <v>382.4184417036842</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F28" t="n">
-        <v>235.5284942057738</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G28" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2417.418403724183</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2234.563569379087</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2014.962104402028</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1725.886877746226</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1471.202389540339</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1181.785219503378</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>953.7956686053609</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>733.0030894618308</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6440,7 +6440,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D29" t="n">
         <v>1590.547811004713</v>
@@ -6449,7 +6449,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362686</v>
@@ -6458,7 +6458,7 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192605</v>
+        <v>95.34095638192602</v>
       </c>
       <c r="J29" t="n">
         <v>378.1925803111717</v>
@@ -6467,10 +6467,10 @@
         <v>852.852361107581</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N29" t="n">
         <v>2950.898526355938</v>
@@ -6494,7 +6494,7 @@
         <v>4405.252601474785</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V29" t="n">
         <v>3820.749612123003</v>
@@ -6537,31 +6537,31 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797189</v>
+        <v>429.5088224239597</v>
       </c>
       <c r="L30" t="n">
-        <v>93.81666304797189</v>
+        <v>924.8344286397185</v>
       </c>
       <c r="M30" t="n">
-        <v>680.0291294438171</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="N30" t="n">
-        <v>1307.627092998424</v>
+        <v>2149.810879820877</v>
       </c>
       <c r="O30" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,25 +6595,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>803.2707707770323</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C31" t="n">
-        <v>634.3345878491255</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D31" t="n">
-        <v>484.2179484367897</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E31" t="n">
-        <v>484.2179484367897</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F31" t="n">
-        <v>484.2179484367897</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G31" t="n">
-        <v>317.0218491516696</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797189</v>
@@ -6643,28 +6643,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487568</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510509</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854707</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.70136564882</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W31" t="n">
-        <v>1433.70136564882</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X31" t="n">
-        <v>1205.711814750802</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y31" t="n">
-        <v>984.9192356072721</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="32">
@@ -6674,52 +6674,52 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
@@ -6731,19 +6731,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="33">
@@ -6774,28 +6774,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797187</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L33" t="n">
-        <v>119.2902967703784</v>
+        <v>924.8344286397185</v>
       </c>
       <c r="M33" t="n">
-        <v>716.6687843969303</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="N33" t="n">
-        <v>1344.266747951537</v>
+        <v>2149.810879820877</v>
       </c>
       <c r="O33" t="n">
-        <v>1896.176478190824</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
         <v>2553.061288060775</v>
@@ -6832,7 +6832,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>513.8536007400717</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C34" t="n">
         <v>402.7245934908938</v>
@@ -6880,28 +6880,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R34" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487568</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510509</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854707</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.70136564882</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611859</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X34" t="n">
-        <v>916.2946447138415</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y34" t="n">
-        <v>695.5020655703114</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="35">
@@ -6923,37 +6923,37 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192451</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q35" t="n">
         <v>4562.265728852255</v>
@@ -7011,31 +7011,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L36" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>680.0291294438171</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,52 +7069,52 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>926.9575315319328</v>
+        <v>926.9575315319335</v>
       </c>
       <c r="C37" t="n">
-        <v>782.551295565682</v>
+        <v>782.5512955656828</v>
       </c>
       <c r="D37" t="n">
-        <v>656.9646031150025</v>
+        <v>656.9646031150035</v>
       </c>
       <c r="E37" t="n">
-        <v>533.5814564942656</v>
+        <v>533.5814564942666</v>
       </c>
       <c r="F37" t="n">
-        <v>411.2214559580115</v>
+        <v>411.2214559580125</v>
       </c>
       <c r="G37" t="n">
-        <v>268.5553036345477</v>
+        <v>268.5553036345487</v>
       </c>
       <c r="H37" t="n">
-        <v>151.373419438402</v>
+        <v>151.3734194384031</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954151</v>
       </c>
       <c r="K37" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380731</v>
       </c>
       <c r="L37" t="n">
-        <v>898.2659412311325</v>
+        <v>898.2659412311326</v>
       </c>
       <c r="M37" t="n">
-        <v>1344.317444979286</v>
+        <v>1344.317444979287</v>
       </c>
       <c r="N37" t="n">
         <v>1785.769117656414</v>
       </c>
       <c r="O37" t="n">
-        <v>2179.340199382518</v>
+        <v>2179.340199382519</v>
       </c>
       <c r="P37" t="n">
-        <v>2496.057455973196</v>
+        <v>2496.057455973197</v>
       </c>
       <c r="Q37" t="n">
-        <v>2639.297491717215</v>
+        <v>2639.297491717216</v>
       </c>
       <c r="R37" t="n">
         <v>2596.781734931274</v>
@@ -7126,19 +7126,19 @@
         <v>2243.385329532432</v>
       </c>
       <c r="U37" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838287</v>
       </c>
       <c r="V37" t="n">
         <v>1748.685508594056</v>
       </c>
       <c r="W37" t="n">
-        <v>1483.798285518751</v>
+        <v>1483.798285518752</v>
       </c>
       <c r="X37" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582391</v>
       </c>
       <c r="Y37" t="n">
-        <v>1084.076049400516</v>
+        <v>1084.076049400517</v>
       </c>
     </row>
     <row r="38">
@@ -7151,7 +7151,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D38" t="n">
         <v>1590.547811004713</v>
@@ -7160,19 +7160,19 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192611</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K38" t="n">
         <v>852.8523611075809</v>
@@ -7190,31 +7190,31 @@
         <v>3640.422291068011</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q38" t="n">
         <v>4562.265728852256</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7236,7 +7236,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7245,34 +7245,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273908</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516145</v>
       </c>
       <c r="L39" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>680.0291294438171</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,73 +7306,73 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>926.9575315319328</v>
+        <v>926.9575315319322</v>
       </c>
       <c r="C40" t="n">
-        <v>782.551295565682</v>
+        <v>782.5512955656816</v>
       </c>
       <c r="D40" t="n">
-        <v>656.9646031150024</v>
+        <v>656.9646031150022</v>
       </c>
       <c r="E40" t="n">
-        <v>533.5814564942656</v>
+        <v>533.5814564942654</v>
       </c>
       <c r="F40" t="n">
-        <v>411.2214559580115</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G40" t="n">
-        <v>268.5553036345477</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H40" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J40" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954151</v>
       </c>
       <c r="K40" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380731</v>
       </c>
       <c r="L40" t="n">
-        <v>898.2659412311325</v>
+        <v>898.2659412311327</v>
       </c>
       <c r="M40" t="n">
-        <v>1344.317444979286</v>
+        <v>1344.317444979287</v>
       </c>
       <c r="N40" t="n">
-        <v>1785.769117656414</v>
+        <v>1785.769117656415</v>
       </c>
       <c r="O40" t="n">
-        <v>2179.340199382518</v>
+        <v>2179.340199382519</v>
       </c>
       <c r="P40" t="n">
-        <v>2496.057455973196</v>
+        <v>2496.057455973197</v>
       </c>
       <c r="Q40" t="n">
-        <v>2639.297491717215</v>
+        <v>2639.297491717216</v>
       </c>
       <c r="R40" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931275</v>
       </c>
       <c r="S40" t="n">
         <v>2438.456847547835</v>
       </c>
       <c r="T40" t="n">
-        <v>2243.385329532432</v>
+        <v>2243.385329532433</v>
       </c>
       <c r="U40" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V40" t="n">
-        <v>1748.685508594056</v>
+        <v>1748.685508594055</v>
       </c>
       <c r="W40" t="n">
-        <v>1483.798285518751</v>
+        <v>1483.79828551875</v>
       </c>
       <c r="X40" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y40" t="n">
         <v>1084.076049400516</v>
@@ -7406,13 +7406,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7421,10 +7421,10 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7485,22 +7485,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>923.0670414349513</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1520.445529061503</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>2148.04349261611</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
         <v>2553.061288060775</v>
@@ -7543,22 +7543,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>926.9575315319325</v>
+        <v>926.9575315319321</v>
       </c>
       <c r="C43" t="n">
-        <v>782.5512955656818</v>
+        <v>782.5512955656814</v>
       </c>
       <c r="D43" t="n">
-        <v>656.9646031150023</v>
+        <v>656.9646031150021</v>
       </c>
       <c r="E43" t="n">
-        <v>533.5814564942655</v>
+        <v>533.5814564942652</v>
       </c>
       <c r="F43" t="n">
-        <v>411.2214559580115</v>
+        <v>411.2214559580112</v>
       </c>
       <c r="G43" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345475</v>
       </c>
       <c r="H43" t="n">
         <v>151.373419438402</v>
@@ -7570,7 +7570,7 @@
         <v>198.094482495415</v>
       </c>
       <c r="K43" t="n">
-        <v>483.8255460380727</v>
+        <v>483.8255460380729</v>
       </c>
       <c r="L43" t="n">
         <v>898.2659412311323</v>
@@ -7588,28 +7588,28 @@
         <v>2496.057455973196</v>
       </c>
       <c r="Q43" t="n">
-        <v>2639.297491717215</v>
+        <v>2639.297491717214</v>
       </c>
       <c r="R43" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S43" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T43" t="n">
-        <v>2243.385329532432</v>
+        <v>2243.385329532431</v>
       </c>
       <c r="U43" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V43" t="n">
         <v>1748.685508594055</v>
       </c>
       <c r="W43" t="n">
-        <v>1483.798285518751</v>
+        <v>1483.79828551875</v>
       </c>
       <c r="X43" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y43" t="n">
         <v>1084.076049400516</v>
@@ -7634,34 +7634,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192451</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111701</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7722,22 +7722,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>923.0670414349513</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1520.445529061503</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>2148.04349261611</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
         <v>2553.061288060775</v>
@@ -7780,37 +7780,37 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>926.9575315319324</v>
+        <v>926.9575315319317</v>
       </c>
       <c r="C46" t="n">
-        <v>782.5512955656818</v>
+        <v>782.5512955656811</v>
       </c>
       <c r="D46" t="n">
-        <v>656.9646031150023</v>
+        <v>656.9646031150018</v>
       </c>
       <c r="E46" t="n">
-        <v>533.5814564942655</v>
+        <v>533.5814564942649</v>
       </c>
       <c r="F46" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580109</v>
       </c>
       <c r="G46" t="n">
-        <v>268.5553036345475</v>
+        <v>268.5553036345471</v>
       </c>
       <c r="H46" t="n">
-        <v>151.373419438402</v>
+        <v>151.3734194384015</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>198.0944824954151</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K46" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L46" t="n">
-        <v>898.2659412311325</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M46" t="n">
         <v>1344.317444979286</v>
@@ -7834,22 +7834,22 @@
         <v>2438.456847547834</v>
       </c>
       <c r="T46" t="n">
-        <v>2243.385329532432</v>
+        <v>2243.385329532431</v>
       </c>
       <c r="U46" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V46" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594054</v>
       </c>
       <c r="W46" t="n">
-        <v>1483.798285518751</v>
+        <v>1483.79828551875</v>
       </c>
       <c r="X46" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y46" t="n">
-        <v>1084.076049400516</v>
+        <v>1084.076049400515</v>
       </c>
     </row>
   </sheetData>
@@ -8055,13 +8055,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>54.95314511566525</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>168.7434581780647</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -8079,7 +8079,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
-        <v>45.52166981132082</v>
+        <v>20.93778120154988</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8292,16 +8292,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>105.1672460959154</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>273.6534998179985</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
@@ -8310,10 +8310,10 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>30.36925650589387</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -9638,7 +9638,7 @@
         <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>-1.477928890381008e-12</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
         <v>0</v>
@@ -22547,25 +22547,25 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>25.57984672460429</v>
+        <v>229.6038584033767</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H2" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22595,7 +22595,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -22604,16 +22604,16 @@
         <v>251.045250128462</v>
       </c>
       <c r="V2" t="n">
-        <v>182.2932559234859</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -23419,10 +23419,10 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -23431,7 +23431,7 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23464,22 +23464,22 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>101.1181252153549</v>
       </c>
       <c r="T13" t="n">
-        <v>143.6212754172145</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.1376433238269</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23656,22 +23656,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>110.003342051665</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462286</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,16 +23698,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>284.9289028870763</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23732,7 +23732,7 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -23890,16 +23890,16 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>57.22910392194177</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -23908,7 +23908,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,7 +23935,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23944,10 +23944,10 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>145.139866510289</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -24130,22 +24130,22 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,7 +24172,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24190,10 +24190,10 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>153.7108110197798</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24367,7 +24367,7 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>34.97276993489153</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -24379,10 +24379,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24421,7 +24421,7 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24610,16 +24610,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,7 +24646,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>37.12601365260455</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24841,7 +24841,7 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -24853,10 +24853,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0.5874149221286018</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,7 +24883,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24898,7 +24898,7 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -25075,7 +25075,7 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>57.22910392194177</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
@@ -25120,7 +25120,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25603,7 +25603,7 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>-9.03913993471055e-13</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>1178291.84109567</v>
+        <v>1178291.841095669</v>
       </c>
     </row>
     <row r="12">
@@ -26320,10 +26320,10 @@
         <v>246312.530959285</v>
       </c>
       <c r="E2" t="n">
-        <v>242143.9799070019</v>
+        <v>242143.9799070018</v>
       </c>
       <c r="F2" t="n">
-        <v>242143.9799070018</v>
+        <v>242143.9799070017</v>
       </c>
       <c r="G2" t="n">
         <v>242143.9799070018</v>
@@ -26332,7 +26332,7 @@
         <v>242143.9799070018</v>
       </c>
       <c r="I2" t="n">
-        <v>242143.9799070018</v>
+        <v>242143.9799070017</v>
       </c>
       <c r="J2" t="n">
         <v>242143.9799070019</v>
@@ -26344,13 +26344,13 @@
         <v>242143.9799070018</v>
       </c>
       <c r="M2" t="n">
+        <v>246312.5309592847</v>
+      </c>
+      <c r="N2" t="n">
         <v>246312.5309592848</v>
       </c>
-      <c r="N2" t="n">
-        <v>246312.5309592847</v>
-      </c>
       <c r="O2" t="n">
-        <v>246312.530959285</v>
+        <v>246312.5309592849</v>
       </c>
       <c r="P2" t="n">
         <v>246312.530959285</v>
@@ -26363,16 +26363,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1114751.783575919</v>
+        <v>1114751.78357592</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>192627.1404403379</v>
+        <v>192627.1404403374</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073554</v>
+        <v>325412.4618073555</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26390,16 +26390,16 @@
         <v>167605.1778099826</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>1.655303094594274e-10</v>
       </c>
       <c r="L3" t="n">
-        <v>48293.97000819066</v>
+        <v>48293.97000819054</v>
       </c>
       <c r="M3" t="n">
         <v>104482.7459291437</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>1.569592313899193e-10</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>61243.63068473998</v>
+        <v>61243.63068474006</v>
       </c>
       <c r="C4" t="n">
         <v>135522.1369769831</v>
       </c>
       <c r="D4" t="n">
-        <v>87914.29116309559</v>
+        <v>87914.29116309564</v>
       </c>
       <c r="E4" t="n">
+        <v>8727.256391744282</v>
+      </c>
+      <c r="F4" t="n">
         <v>8727.256391744284</v>
       </c>
-      <c r="F4" t="n">
-        <v>8727.256391744235</v>
-      </c>
       <c r="G4" t="n">
-        <v>8727.256391744264</v>
+        <v>8727.256391744284</v>
       </c>
       <c r="H4" t="n">
         <v>8727.256391744282</v>
       </c>
       <c r="I4" t="n">
-        <v>8727.256391744246</v>
+        <v>8727.256391744282</v>
       </c>
       <c r="J4" t="n">
+        <v>8727.256391744284</v>
+      </c>
+      <c r="K4" t="n">
         <v>8727.256391744266</v>
-      </c>
-      <c r="K4" t="n">
-        <v>8727.256391744253</v>
       </c>
       <c r="L4" t="n">
         <v>8727.256391744284</v>
       </c>
       <c r="M4" t="n">
-        <v>16718.11565483774</v>
+        <v>16718.11565483776</v>
       </c>
       <c r="N4" t="n">
         <v>16718.11565483774</v>
       </c>
       <c r="O4" t="n">
-        <v>16718.11565483774</v>
+        <v>16718.11565483778</v>
       </c>
       <c r="P4" t="n">
-        <v>16718.11565483775</v>
+        <v>16718.11565483776</v>
       </c>
     </row>
     <row r="5">
@@ -26467,10 +26467,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>92937.7724398447</v>
+        <v>92937.77243984472</v>
       </c>
       <c r="C5" t="n">
-        <v>92937.7724398447</v>
+        <v>92937.77243984473</v>
       </c>
       <c r="D5" t="n">
         <v>107933.9405613933</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1061662.066575035</v>
+        <v>-1061987.411665317</v>
       </c>
       <c r="C6" t="n">
-        <v>17852.62154245723</v>
+        <v>17852.6215424572</v>
       </c>
       <c r="D6" t="n">
-        <v>-142162.8412055419</v>
+        <v>-142162.8412055413</v>
       </c>
       <c r="E6" t="n">
-        <v>-193118.2681160049</v>
+        <v>-193153.0060414407</v>
       </c>
       <c r="F6" t="n">
-        <v>132294.1936913504</v>
+        <v>132259.4557659147</v>
       </c>
       <c r="G6" t="n">
-        <v>132294.1936913504</v>
+        <v>132259.4557659148</v>
       </c>
       <c r="H6" t="n">
-        <v>132294.1936913504</v>
+        <v>132259.4557659147</v>
       </c>
       <c r="I6" t="n">
-        <v>132294.1936913505</v>
+        <v>132259.4557659146</v>
       </c>
       <c r="J6" t="n">
-        <v>-35310.98411863214</v>
+        <v>-35345.72204406779</v>
       </c>
       <c r="K6" t="n">
-        <v>132294.1936913505</v>
+        <v>132259.4557659146</v>
       </c>
       <c r="L6" t="n">
-        <v>84000.22368315978</v>
+        <v>83965.48575772421</v>
       </c>
       <c r="M6" t="n">
-        <v>21947.55352138801</v>
+        <v>21947.55352138779</v>
       </c>
       <c r="N6" t="n">
-        <v>126430.2994505316</v>
+        <v>126430.2994505315</v>
       </c>
       <c r="O6" t="n">
-        <v>126430.2994505319</v>
+        <v>126430.2994505321</v>
       </c>
       <c r="P6" t="n">
-        <v>126430.2994505319</v>
+        <v>126430.2994505318</v>
       </c>
     </row>
   </sheetData>
@@ -26716,13 +26716,13 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="N2" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="O2" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="P2" t="n">
         <v>24.28464749203973</v>
@@ -26735,10 +26735,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="C3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="D3" t="n">
         <v>1089.776700593298</v>
@@ -26790,19 +26790,19 @@
         <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.584832100039</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022923</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
         <v>1172.708288099648</v>
@@ -26811,7 +26811,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
         <v>1172.708288099649</v>
@@ -26823,7 +26823,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="O4" t="n">
         <v>1172.708288099648</v>
@@ -26938,7 +26938,7 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26957,13 +26957,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>155.7118084757592</v>
+        <v>155.7118084757587</v>
       </c>
       <c r="E3" t="n">
         <v>278.1987997483757</v>
@@ -26984,7 +26984,7 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -26993,7 +26993,7 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -27015,10 +27015,10 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>190.8166233022538</v>
+        <v>190.8166233022533</v>
       </c>
       <c r="E4" t="n">
-        <v>341.306832697356</v>
+        <v>341.3068326973561</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,16 +27033,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000392</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>190.8166233022536</v>
+        <v>190.8166233022531</v>
       </c>
       <c r="M4" t="n">
-        <v>341.306832697356</v>
+        <v>341.3068326973561</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27261,10 +27261,10 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>190.8166233022538</v>
+        <v>190.8166233022533</v>
       </c>
       <c r="M4" t="n">
-        <v>341.306832697356</v>
+        <v>341.3068326973561</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27382,10 +27382,10 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>138.5379403666932</v>
       </c>
       <c r="E2" t="n">
-        <v>356.3505233476575</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27394,7 +27394,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27427,10 +27427,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T2" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -27534,10 +27534,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>33.91007409977183</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27552,7 +27552,7 @@
         <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
-        <v>147.2515091551289</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I4" t="n">
         <v>104.7965952039006</v>
@@ -27591,13 +27591,13 @@
         <v>220.7486959972119</v>
       </c>
       <c r="U4" t="n">
-        <v>200.8610509830096</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -27613,10 +27613,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -27625,16 +27625,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I5" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27670,16 +27670,16 @@
         <v>206.6581849802338</v>
       </c>
       <c r="U5" t="n">
-        <v>6.193308483574668</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>218.6145178076433</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27774,7 +27774,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -27783,16 +27783,16 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>105.7474528633808</v>
       </c>
       <c r="G7" t="n">
         <v>166.3066000448042</v>
       </c>
       <c r="H7" t="n">
-        <v>147.2515091551289</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27825,22 +27825,22 @@
         <v>194.6624603617375</v>
       </c>
       <c r="T7" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>157.3380173840883</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27859,19 +27859,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>17.75890313905267</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,10 +27901,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>54.24383066939905</v>
       </c>
       <c r="U8" t="n">
         <v>250.995171958902</v>
@@ -27913,7 +27913,7 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -28008,19 +28008,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>45.79259196819351</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>120.9954166487522</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>166.0258082590282</v>
@@ -28029,7 +28029,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,7 +28056,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -28065,10 +28065,10 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -28141,7 +28141,7 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>-3.410605131648481e-13</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -28305,7 +28305,7 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>1.131184035330079e-12</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -28339,10 +28339,10 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>-1.129107112151092e-13</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -28500,7 +28500,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>-4.713266813875332e-12</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="C37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="D37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="E37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="F37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="G37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="H37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="I37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="J37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="K37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="L37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="M37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="N37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="O37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="P37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="Q37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="R37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="S37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="T37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="U37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="V37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="W37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="X37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="Y37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203974</v>
       </c>
     </row>
     <row r="38">
@@ -30232,7 +30232,7 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>-3.979039320256561e-13</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="C40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="D40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="E40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="F40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="G40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="H40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="I40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="J40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="K40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="L40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="M40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="N40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="O40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="P40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="Q40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="R40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="S40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="T40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="U40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="V40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="W40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="X40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="Y40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203974</v>
       </c>
     </row>
     <row r="41">
@@ -30460,7 +30460,7 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="C43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="D43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="E43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="F43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="G43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="H43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="I43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="J43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="K43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="L43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="M43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="N43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="O43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="P43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="R43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="S43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="T43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="U43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="V43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="W43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="X43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203974</v>
       </c>
     </row>
     <row r="44">
@@ -31039,46 +31039,46 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.755034742181059</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H2" t="n">
-        <v>38.45624955336178</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I2" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J2" t="n">
-        <v>318.7038799491899</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K2" t="n">
-        <v>477.6545005857142</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L2" t="n">
-        <v>592.5726450767379</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M2" t="n">
-        <v>659.3512441730003</v>
+        <v>659.3512441730005</v>
       </c>
       <c r="N2" t="n">
-        <v>670.0202366342223</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O2" t="n">
-        <v>632.6811099166594</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P2" t="n">
-        <v>539.9786897190644</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q2" t="n">
-        <v>405.5015080147051</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R2" t="n">
-        <v>235.8772011235311</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S2" t="n">
-        <v>85.56785418745096</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T2" t="n">
-        <v>16.43766458389759</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U2" t="n">
         <v>0.3004027793744847</v>
@@ -31121,10 +31121,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H3" t="n">
-        <v>19.4038763438002</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I3" t="n">
-        <v>69.17367361436493</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J3" t="n">
         <v>189.8178475575841</v>
@@ -31133,34 +31133,34 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L3" t="n">
-        <v>436.2347404177243</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M3" t="n">
-        <v>509.0653662040588</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N3" t="n">
-        <v>522.5388116762072</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O3" t="n">
-        <v>478.0209264405674</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P3" t="n">
-        <v>383.6539365378625</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q3" t="n">
-        <v>256.462496416876</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R3" t="n">
-        <v>124.741722762414</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S3" t="n">
-        <v>37.31853601997901</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T3" t="n">
-        <v>8.098166376000171</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1321789941675763</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31203,7 +31203,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>50.6538797233577</v>
+        <v>50.65387972335772</v>
       </c>
       <c r="J4" t="n">
         <v>119.0856174753787</v>
@@ -31218,10 +31218,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N4" t="n">
-        <v>257.7559726067958</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O4" t="n">
-        <v>238.0793597154672</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P4" t="n">
         <v>203.7180217169137</v>
@@ -31230,16 +31230,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R4" t="n">
-        <v>75.73581895759585</v>
+        <v>75.73581895759587</v>
       </c>
       <c r="S4" t="n">
-        <v>29.35413767523478</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T4" t="n">
-        <v>7.196893431069561</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U4" t="n">
-        <v>0.09187523529024984</v>
+        <v>0.09187523529024987</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,46 +31276,46 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.755034742181059</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H5" t="n">
-        <v>38.45624955336178</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I5" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J5" t="n">
-        <v>318.7038799491899</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K5" t="n">
-        <v>477.6545005857142</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L5" t="n">
-        <v>592.5726450767379</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M5" t="n">
-        <v>659.3512441730003</v>
+        <v>659.3512441730005</v>
       </c>
       <c r="N5" t="n">
-        <v>670.0202366342223</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O5" t="n">
-        <v>632.6811099166594</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P5" t="n">
-        <v>539.9786897190644</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q5" t="n">
-        <v>405.5015080147051</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R5" t="n">
-        <v>235.8772011235311</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S5" t="n">
-        <v>85.56785418745096</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T5" t="n">
-        <v>16.43766458389759</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U5" t="n">
         <v>0.3004027793744847</v>
@@ -31358,10 +31358,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H6" t="n">
-        <v>19.4038763438002</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I6" t="n">
-        <v>69.17367361436493</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J6" t="n">
         <v>189.8178475575841</v>
@@ -31370,34 +31370,34 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L6" t="n">
-        <v>436.2347404177243</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M6" t="n">
-        <v>509.0653662040588</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N6" t="n">
-        <v>522.5388116762072</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O6" t="n">
-        <v>478.0209264405674</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P6" t="n">
-        <v>383.6539365378625</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q6" t="n">
-        <v>256.462496416876</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R6" t="n">
-        <v>124.741722762414</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S6" t="n">
-        <v>37.31853601997901</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T6" t="n">
-        <v>8.098166376000171</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1321789941675763</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31440,7 +31440,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I7" t="n">
-        <v>50.6538797233577</v>
+        <v>50.65387972335772</v>
       </c>
       <c r="J7" t="n">
         <v>119.0856174753787</v>
@@ -31455,10 +31455,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N7" t="n">
-        <v>257.7559726067958</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O7" t="n">
-        <v>238.0793597154672</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P7" t="n">
         <v>203.7180217169137</v>
@@ -31467,16 +31467,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R7" t="n">
-        <v>75.73581895759585</v>
+        <v>75.73581895759587</v>
       </c>
       <c r="S7" t="n">
-        <v>29.35413767523478</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T7" t="n">
-        <v>7.196893431069561</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U7" t="n">
-        <v>0.09187523529024984</v>
+        <v>0.09187523529024987</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,43 +31513,43 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H8" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I8" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J8" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K8" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T8" t="n">
         <v>19.1778794245112</v>
@@ -31598,40 +31598,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K9" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O9" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R9" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31671,13 +31671,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H10" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J10" t="n">
         <v>138.937596729739</v>
@@ -31686,16 +31686,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L10" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M10" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P10" t="n">
         <v>237.6785118802169</v>
@@ -31704,16 +31704,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U10" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,7 +31750,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31762,31 +31762,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31829,10 +31829,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
@@ -31841,22 +31841,22 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>490.507583235568</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>543.0832917018711</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
@@ -31865,13 +31865,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,25 +31911,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31938,19 +31938,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,7 +31987,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -31999,31 +31999,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32066,10 +32066,10 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
@@ -32078,37 +32078,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473073</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862122</v>
+        <v>734.2678383622665</v>
       </c>
       <c r="N15" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>522.1224556861829</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,25 +32148,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32175,19 +32175,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,7 +32224,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32236,31 +32236,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,31 +32303,31 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422586</v>
+        <v>326.7634969305194</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
@@ -32339,13 +32339,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32385,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32412,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,7 +32461,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32473,31 +32473,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,10 +32540,10 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
         <v>101.3076196007749</v>
@@ -32552,16 +32552,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
         <v>398.7616643558013</v>
@@ -32576,13 +32576,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32622,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32649,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,7 +32698,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32710,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,49 +32777,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
         <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
-        <v>164.2853229338202</v>
+        <v>248.7449369209195</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32859,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32886,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,7 +32935,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32947,31 +32947,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,31 +33014,31 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>326.7634969305192</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071786</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
@@ -33050,13 +33050,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33096,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33123,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33257,34 +33257,34 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M30" t="n">
-        <v>734.2678383622658</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N30" t="n">
         <v>765.2790490071786</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437244</v>
+        <v>549.9198891312099</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742439</v>
@@ -33427,7 +33427,7 @@
         <v>867.8464071162563</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175661</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N32" t="n">
         <v>981.2715114159428</v>
@@ -33494,16 +33494,16 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L33" t="n">
-        <v>164.2853229338202</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M33" t="n">
         <v>745.5466476862122</v>
@@ -33512,13 +33512,13 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437244</v>
+        <v>549.9198891312099</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>145.679503963964</v>
@@ -33652,7 +33652,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J35" t="n">
         <v>466.7546155663283</v>
@@ -33676,7 +33676,7 @@
         <v>790.8204499236508</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669214</v>
       </c>
       <c r="R35" t="n">
         <v>345.4516222043726</v>
@@ -33731,34 +33731,34 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M36" t="n">
-        <v>734.267838362266</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N36" t="n">
         <v>765.2790490071786</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742439</v>
@@ -33883,40 +33883,40 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H38" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J38" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R38" t="n">
-        <v>345.451622204372</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S38" t="n">
         <v>125.3175546292901</v>
@@ -33925,7 +33925,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U38" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33968,37 +33968,37 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M39" t="n">
-        <v>734.267838362266</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558009</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
@@ -34041,13 +34041,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H40" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J40" t="n">
         <v>174.4056633796262</v>
@@ -34065,7 +34065,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P40" t="n">
         <v>298.3532140417315</v>
@@ -34077,7 +34077,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
@@ -34120,7 +34120,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34132,31 +34132,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34199,31 +34199,31 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>551.7051287319848</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
@@ -34235,13 +34235,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,25 +34281,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34308,19 +34308,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,43 +34357,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34436,31 +34436,31 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>551.7051287319848</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
@@ -34472,13 +34472,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,25 +34518,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34545,19 +34545,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,31 +34696,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>137.6579754225036</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K2" t="n">
-        <v>257.5646495407337</v>
+        <v>257.5646495407338</v>
       </c>
       <c r="L2" t="n">
-        <v>356.8062301067507</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M2" t="n">
-        <v>429.0050109457276</v>
+        <v>429.0050109457278</v>
       </c>
       <c r="N2" t="n">
-        <v>440.6071730376314</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O2" t="n">
-        <v>402.5828984949726</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P2" t="n">
-        <v>308.7456939637948</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q2" t="n">
-        <v>183.1958181402556</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R2" t="n">
-        <v>20.29166330939901</v>
+        <v>20.29166330939907</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,31 +34775,31 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>189.0712562313262</v>
+        <v>117.9333660065827</v>
       </c>
       <c r="K3" t="n">
-        <v>186.5874962434848</v>
+        <v>451.0527332560634</v>
       </c>
       <c r="L3" t="n">
-        <v>466.4238188159148</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M3" t="n">
-        <v>366.9313322820404</v>
+        <v>366.9313322820406</v>
       </c>
       <c r="N3" t="n">
-        <v>391.1970995928739</v>
+        <v>391.197099592874</v>
       </c>
       <c r="O3" t="n">
-        <v>335.424681996123</v>
+        <v>335.4246819961231</v>
       </c>
       <c r="P3" t="n">
-        <v>249.6795291235322</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q3" t="n">
-        <v>326.5580100667036</v>
+        <v>326.5580100667037</v>
       </c>
       <c r="R3" t="n">
-        <v>24.58388860977091</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34854,28 +34854,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25.72643735870592</v>
+        <v>25.72643735870595</v>
       </c>
       <c r="K4" t="n">
-        <v>173.424759342349</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L4" t="n">
-        <v>278.0112915831069</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M4" t="n">
         <v>303.6179906468033</v>
       </c>
       <c r="N4" t="n">
-        <v>301.8881449860244</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O4" t="n">
-        <v>262.6644876295069</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P4" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q4" t="n">
-        <v>54.881755458054</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,31 +34933,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>137.6579754225036</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K5" t="n">
-        <v>257.5646495407337</v>
+        <v>257.5646495407338</v>
       </c>
       <c r="L5" t="n">
-        <v>356.8062301067507</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M5" t="n">
-        <v>429.0050109457276</v>
+        <v>429.0050109457278</v>
       </c>
       <c r="N5" t="n">
-        <v>440.6071730376314</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O5" t="n">
-        <v>402.5828984949726</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P5" t="n">
-        <v>308.7456939637948</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q5" t="n">
-        <v>183.1958181402556</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R5" t="n">
-        <v>20.29166330939901</v>
+        <v>20.29166330939907</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,31 +35012,31 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>189.0712562313262</v>
+        <v>62.98022089091745</v>
       </c>
       <c r="K6" t="n">
-        <v>186.5874962434848</v>
+        <v>451.0527332560634</v>
       </c>
       <c r="L6" t="n">
-        <v>402.8476067337655</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M6" t="n">
-        <v>640.5848321000389</v>
+        <v>366.9313322820406</v>
       </c>
       <c r="N6" t="n">
-        <v>391.1970995928739</v>
+        <v>391.197099592874</v>
       </c>
       <c r="O6" t="n">
-        <v>335.424681996123</v>
+        <v>335.4246819961231</v>
       </c>
       <c r="P6" t="n">
-        <v>249.6795291235322</v>
+        <v>280.0487856294262</v>
       </c>
       <c r="Q6" t="n">
-        <v>116.4807223308545</v>
+        <v>326.5580100667037</v>
       </c>
       <c r="R6" t="n">
-        <v>24.58388860977091</v>
+        <v>24.58388860977094</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35091,28 +35091,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>25.72643735870592</v>
+        <v>25.72643735870595</v>
       </c>
       <c r="K7" t="n">
-        <v>173.424759342349</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L7" t="n">
-        <v>278.0112915831069</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M7" t="n">
         <v>303.6179906468033</v>
       </c>
       <c r="N7" t="n">
-        <v>301.8881449860244</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O7" t="n">
-        <v>262.6644876295069</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P7" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q7" t="n">
-        <v>54.881755458054</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N8" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O8" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K9" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P9" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35328,10 +35328,10 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K10" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L10" t="n">
         <v>319.7573721701981</v>
@@ -35343,13 +35343,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O10" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P10" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q10" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35492,19 +35492,19 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>351.9532034556938</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>409.1088842875408</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35565,22 +35565,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35726,28 +35726,28 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674331</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>592.1338044402482</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>379.5262112417385</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,22 +35802,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35957,25 +35957,25 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678996</v>
+        <v>188.9220579561604</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -36039,22 +36039,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36194,7 +36194,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
@@ -36203,13 +36203,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
         <v>256.1654199113569</v>
@@ -36276,22 +36276,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367756</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,28 +36434,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>25.73094315394599</v>
+        <v>110.1905571410453</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,22 +36513,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36589,34 +36589,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36668,25 +36668,25 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>188.9220579561602</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238454</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O27" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36750,22 +36750,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36905,34 +36905,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M30" t="n">
-        <v>592.1338044402476</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
         <v>633.9373369238454</v>
       </c>
       <c r="O30" t="n">
-        <v>557.48457599928</v>
+        <v>407.3236446867654</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37075,7 +37075,7 @@
         <v>632.079992146269</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902934</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N32" t="n">
         <v>751.8584478193518</v>
@@ -37142,16 +37142,16 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>25.73094315394599</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
@@ -37160,13 +37160,13 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O33" t="n">
-        <v>557.48457599928</v>
+        <v>407.3236446867654</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37300,7 +37300,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
@@ -37324,7 +37324,7 @@
         <v>559.5874541683813</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924719</v>
       </c>
       <c r="R35" t="n">
         <v>129.8660843902405</v>
@@ -37379,34 +37379,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M36" t="n">
-        <v>592.1338044402477</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
         <v>633.9373369238454</v>
       </c>
       <c r="O36" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>105.3311307549931</v>
+        <v>105.3311307549932</v>
       </c>
       <c r="K37" t="n">
         <v>288.6172359016747</v>
@@ -37473,13 +37473,13 @@
         <v>450.5570744930849</v>
       </c>
       <c r="N37" t="n">
-        <v>445.9107804819471</v>
+        <v>445.9107804819472</v>
       </c>
       <c r="O37" t="n">
         <v>397.5465471980852</v>
       </c>
       <c r="P37" t="n">
-        <v>319.9164207986647</v>
+        <v>319.9164207986648</v>
       </c>
       <c r="Q37" t="n">
         <v>144.6869047919381</v>
@@ -37537,34 +37537,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J38" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P38" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,34 +37616,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M39" t="n">
-        <v>592.1338044402477</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O39" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113564</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,28 +37698,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>105.3311307549931</v>
+        <v>105.3311307549932</v>
       </c>
       <c r="K40" t="n">
         <v>288.6172359016747</v>
       </c>
       <c r="L40" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111713</v>
       </c>
       <c r="M40" t="n">
-        <v>450.5570744930849</v>
+        <v>450.557074493085</v>
       </c>
       <c r="N40" t="n">
-        <v>445.9107804819471</v>
+        <v>445.9107804819473</v>
       </c>
       <c r="O40" t="n">
         <v>397.5465471980852</v>
       </c>
       <c r="P40" t="n">
-        <v>319.9164207986647</v>
+        <v>319.9164207986648</v>
       </c>
       <c r="Q40" t="n">
-        <v>144.6869047919381</v>
+        <v>144.6869047919382</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37774,34 +37774,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,25 +37853,25 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>409.1088842875403</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -37950,7 +37950,7 @@
         <v>445.9107804819471</v>
       </c>
       <c r="O43" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P43" t="n">
         <v>319.9164207986647</v>
@@ -38011,34 +38011,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,25 +38090,25 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>409.1088842875403</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
@@ -38175,19 +38175,19 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K46" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L46" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M46" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N46" t="n">
-        <v>445.9107804819472</v>
+        <v>445.9107804819471</v>
       </c>
       <c r="O46" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P46" t="n">
         <v>319.9164207986647</v>
